--- a/biology/Médecine/Prix_Pfizer_de_la_recherche/Prix_Pfizer_de_la_recherche.xlsx
+++ b/biology/Médecine/Prix_Pfizer_de_la_recherche/Prix_Pfizer_de_la_recherche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Pfizer de la recherche est une distinction décernée pour des travaux de recherche exceptionnels en Suisse et financée par la Fondation du Prix Pfizer de la Recherche[1] créée par l'entreprise Pfizer.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Pfizer de la recherche est une distinction décernée pour des travaux de recherche exceptionnels en Suisse et financée par la Fondation du Prix Pfizer de la Recherche créée par l'entreprise Pfizer.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les prix sont décernés dans cinq catégories[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les prix sont décernés dans cinq catégories : 
 système cardiovasculaire, urologie et néphrologie
 infectiologie, rhumatologie et immunologie
-neurosciences et maladies du système nerveux[3],[4]
+neurosciences et maladies du système nerveux,
 oncologie
 pédiatrie</t>
         </is>
